--- a/libmasys/excel/bibliografia.xlsx
+++ b/libmasys/excel/bibliografia.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="312">
   <si>
     <t>Titulo</t>
   </si>
@@ -323,6 +323,201 @@
   </si>
   <si>
     <t>BI C 25</t>
+  </si>
+  <si>
+    <t>La ceremonia del adiós</t>
+  </si>
+  <si>
+    <t>Simeone de Beauvoir</t>
+  </si>
+  <si>
+    <t>EDHASA</t>
+  </si>
+  <si>
+    <t>BI C 26</t>
+  </si>
+  <si>
+    <t>La carrera del Doris Hart</t>
+  </si>
+  <si>
+    <t>Vicki Baum</t>
+  </si>
+  <si>
+    <t>BI C 27</t>
+  </si>
+  <si>
+    <t>Diario de mi vida</t>
+  </si>
+  <si>
+    <t>Maria Bashkirtseff</t>
+  </si>
+  <si>
+    <t>Espasa Calpe</t>
+  </si>
+  <si>
+    <t>BI C 28</t>
+  </si>
+  <si>
+    <t>Mi diario</t>
+  </si>
+  <si>
+    <t>Leon Bloy</t>
+  </si>
+  <si>
+    <t>Mundo moderno</t>
+  </si>
+  <si>
+    <t>BI C 29</t>
+  </si>
+  <si>
+    <t>Memorias de Dolly Morton</t>
+  </si>
+  <si>
+    <t>Charles Carrington</t>
+  </si>
+  <si>
+    <t>Edasa</t>
+  </si>
+  <si>
+    <t>BI C 30</t>
+  </si>
+  <si>
+    <t>El marqués de Sade</t>
+  </si>
+  <si>
+    <t>Leviatán</t>
+  </si>
+  <si>
+    <t>BI C 31</t>
+  </si>
+  <si>
+    <t>Realidad y fantasia en Naguib Mahfuz</t>
+  </si>
+  <si>
+    <t>Mercedes del Amo</t>
+  </si>
+  <si>
+    <t>Universidad de Granada</t>
+  </si>
+  <si>
+    <t>BI C 32</t>
+  </si>
+  <si>
+    <t>Mi corazón al desnudo</t>
+  </si>
+  <si>
+    <t>Charles Baudelaire</t>
+  </si>
+  <si>
+    <t>Apolo</t>
+  </si>
+  <si>
+    <t>BI C 33</t>
+  </si>
+  <si>
+    <t>Memorias del condado de Hecate</t>
+  </si>
+  <si>
+    <t>Edmund Wilson</t>
+  </si>
+  <si>
+    <t>Versal travesías</t>
+  </si>
+  <si>
+    <t>BI C 34</t>
+  </si>
+  <si>
+    <t>Final de cuentas</t>
+  </si>
+  <si>
+    <t>BI C 35</t>
+  </si>
+  <si>
+    <t>La plenitud de la vida</t>
+  </si>
+  <si>
+    <t>BI C 36</t>
+  </si>
+  <si>
+    <t>La vida del doctor Samuel Johnson</t>
+  </si>
+  <si>
+    <t>James Boswell</t>
+  </si>
+  <si>
+    <t>BI C 37</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Max Brod</t>
+  </si>
+  <si>
+    <t>BI C 38</t>
+  </si>
+  <si>
+    <t>La fuerza de las cosas</t>
+  </si>
+  <si>
+    <t>BI C 39</t>
+  </si>
+  <si>
+    <t>Retablo de mis recuerdos</t>
+  </si>
+  <si>
+    <t>Maurice Baring</t>
+  </si>
+  <si>
+    <t>Lauro</t>
+  </si>
+  <si>
+    <t>BI C 40</t>
+  </si>
+  <si>
+    <t>Juaán Ginés de Sepúlveda</t>
+  </si>
+  <si>
+    <t>José Manuel Rodríguez Peregrina</t>
+  </si>
+  <si>
+    <t>BI C 41</t>
+  </si>
+  <si>
+    <t>Historia de una amistad</t>
+  </si>
+  <si>
+    <t>Jean Paul Sartre</t>
+  </si>
+  <si>
+    <t>Nagelkop</t>
+  </si>
+  <si>
+    <t>BI C 42</t>
+  </si>
+  <si>
+    <t>Memorias del señor de Schnabelewopski</t>
+  </si>
+  <si>
+    <t>Enrique Heine</t>
+  </si>
+  <si>
+    <t>Insula</t>
+  </si>
+  <si>
+    <t>BI C 43</t>
+  </si>
+  <si>
+    <t>Voltaire par lui-meme</t>
+  </si>
+  <si>
+    <t>René Pomeau</t>
+  </si>
+  <si>
+    <t>Ecrivains de Toujours</t>
+  </si>
+  <si>
+    <t>BI C 44</t>
   </si>
   <si>
     <t>Anaomía de un instante</t>
@@ -1349,80 +1544,384 @@
       </c>
     </row>
     <row r="27">
-      <c r="F27" s="2"/>
-      <c r="H27" s="2"/>
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1982.0</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="28">
-      <c r="F28" s="2"/>
-      <c r="H28" s="2"/>
+      <c r="A28" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1956.0</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="29">
-      <c r="F29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="A29" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1948.0</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30">
-      <c r="F30" s="2"/>
-      <c r="H30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1947.0</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31">
-      <c r="F31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="A31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1970.0</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="32">
-      <c r="F32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1956.0</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="33">
-      <c r="F33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1991.0</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="34">
-      <c r="F34" s="2"/>
-      <c r="H34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1947.0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35">
-      <c r="F35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1989.0</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="36">
-      <c r="F36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1972.0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="37">
-      <c r="F37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="A37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1962.0</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="38">
-      <c r="F38" s="2"/>
-      <c r="H38" s="2"/>
+      <c r="A38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1998.0</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="39">
-      <c r="F39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="A39" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1951.0</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="40">
-      <c r="F40" s="2"/>
-      <c r="H40" s="2"/>
+      <c r="A40" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1961.0</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="41">
-      <c r="F41" s="2"/>
-      <c r="H41" s="2"/>
+      <c r="A41" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1943.0</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="42">
-      <c r="F42" s="2"/>
-      <c r="H42" s="2"/>
+      <c r="A42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1993.0</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="43">
-      <c r="F43" s="2"/>
-      <c r="H43" s="2"/>
+      <c r="A43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1965.0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="44">
-      <c r="F44" s="2"/>
-      <c r="H44" s="2"/>
+      <c r="A44" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1956.0</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="45">
-      <c r="F45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="A45" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1955.0</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="46">
       <c r="F46" s="2"/>
@@ -1571,172 +2070,172 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2">
         <v>2009.0</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2">
         <v>1991.0</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>111</v>
+        <v>176</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="D254" s="2">
         <v>2001.0</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>115</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="D255" s="2">
         <v>1959.0</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D256" s="2">
         <v>2004.0</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D257" s="2">
         <v>1983.0</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D258" s="2">
         <v>2000.0</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>131</v>
+        <v>196</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>132</v>
+        <v>197</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>133</v>
+        <v>198</v>
       </c>
       <c r="D259" s="2">
         <v>1985.0</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>130</v>
+        <v>195</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="D260" s="2">
         <v>1944.0</v>
@@ -1748,15 +2247,15 @@
         <v>11</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="D261" s="2">
         <v>1988.0</v>
@@ -1768,555 +2267,555 @@
         <v>11</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>141</v>
+        <v>206</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>142</v>
+        <v>207</v>
       </c>
       <c r="D262" s="2">
         <v>2006.0</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>144</v>
+        <v>209</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>146</v>
+        <v>211</v>
       </c>
       <c r="D263" s="2">
         <v>1988.0</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>147</v>
+        <v>212</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>148</v>
+        <v>213</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>149</v>
+        <v>214</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>150</v>
+        <v>215</v>
       </c>
       <c r="D264" s="2">
         <v>2002.0</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>151</v>
+        <v>216</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>153</v>
+        <v>218</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>154</v>
+        <v>219</v>
       </c>
       <c r="D265" s="2">
         <v>2001.0</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D266" s="2">
         <v>2002.0</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>160</v>
+        <v>225</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D267" s="2">
         <v>2002.0</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>162</v>
+        <v>227</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D268" s="2">
         <v>2002.0</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>163</v>
+        <v>228</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>157</v>
+        <v>222</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D269" s="2">
         <v>2002.0</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D270" s="2">
         <v>2002.0</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F270" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
-        <v>165</v>
+        <v>230</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>158</v>
+        <v>223</v>
       </c>
       <c r="D271" s="2">
         <v>2002.0</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>159</v>
+        <v>224</v>
       </c>
       <c r="F271" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>167</v>
+        <v>232</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="D272" s="2">
         <v>1996.0</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>171</v>
+        <v>236</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>173</v>
+        <v>238</v>
       </c>
       <c r="D273" s="2">
         <v>2006.0</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>176</v>
+        <v>241</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>177</v>
+        <v>242</v>
       </c>
       <c r="D274" s="2">
         <v>0.0</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>178</v>
+        <v>243</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>179</v>
+        <v>244</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>180</v>
+        <v>245</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>181</v>
+        <v>246</v>
       </c>
       <c r="D275" s="2">
         <v>2002.0</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>183</v>
+        <v>248</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>184</v>
+        <v>249</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>185</v>
+        <v>250</v>
       </c>
       <c r="D276" s="2">
         <v>2000.0</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>188</v>
+        <v>253</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>189</v>
+        <v>254</v>
       </c>
       <c r="D277" s="2">
         <v>2009.0</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>190</v>
+        <v>255</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>191</v>
+        <v>256</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>192</v>
+        <v>257</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="D278" s="2">
         <v>2009.0</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="F278" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>194</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="D279" s="2">
         <v>1996.0</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="F279" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>197</v>
+        <v>262</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>198</v>
+        <v>263</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D280" s="2">
         <v>2002.0</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>201</v>
+        <v>266</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>203</v>
+        <v>268</v>
       </c>
       <c r="D281" s="2">
         <v>2008.0</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>174</v>
+        <v>239</v>
       </c>
       <c r="F281" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>206</v>
+        <v>271</v>
       </c>
       <c r="D282" s="2">
         <v>2007.0</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>207</v>
+        <v>272</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>208</v>
+        <v>273</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="D283" s="2">
         <v>1990.0</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>210</v>
+        <v>275</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H283" s="2" t="s">
-        <v>211</v>
+        <v>276</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>212</v>
+        <v>277</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>199</v>
+        <v>264</v>
       </c>
       <c r="D284" s="2">
         <v>1998.0</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>200</v>
+        <v>265</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="D285" s="2">
         <v>1985.0</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>170</v>
+        <v>235</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>217</v>
+        <v>282</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>218</v>
+        <v>283</v>
       </c>
       <c r="D286" s="2">
         <v>1992.0</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>219</v>
+        <v>284</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>220</v>
+        <v>285</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="D287" s="2">
         <v>2001.0</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="D288" s="2">
         <v>2007.0</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="D289" s="2">
         <v>1985.0</v>
@@ -2328,87 +2827,87 @@
         <v>11</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>231</v>
+        <v>296</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>233</v>
+        <v>298</v>
       </c>
       <c r="D290" s="2">
         <v>2004.0</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="D291" s="2">
         <v>1977.0</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>237</v>
+        <v>302</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>238</v>
+        <v>303</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>239</v>
+        <v>304</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>240</v>
+        <v>305</v>
       </c>
       <c r="D292" s="2">
         <v>2015.0</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>241</v>
+        <v>306</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>242</v>
+        <v>307</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>243</v>
+        <v>308</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>244</v>
+        <v>309</v>
       </c>
       <c r="D293" s="2">
         <v>1934.0</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>245</v>
+        <v>310</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>246</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294">
